--- a/package_hub/template/import_hosts_template.xlsx
+++ b/package_hub/template/import_hosts_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13120"/>
+    <workbookView windowWidth="28800" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>字段名称(请勿编辑)</t>
   </si>
@@ -40,6 +40,9 @@
     <t>操作系统[必填]</t>
   </si>
   <si>
+    <t>是否执行初始化[必填]</t>
+  </si>
+  <si>
     <t>字段标识(请勿编辑)</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>operate_system</t>
+  </si>
+  <si>
+    <t>init_host</t>
   </si>
   <si>
     <t>字段类型(请勿编辑)</t>
@@ -140,6 +146,35 @@
     <t>CentOS/RedHat</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>否</t>
+    </r>
+  </si>
+  <si>
     <t>示例数据(请勿编辑)</t>
   </si>
   <si>
@@ -159,6 +194,9 @@
   </si>
   <si>
     <t>CentOS</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <r>
@@ -177,12 +215,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +258,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -228,36 +289,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,17 +303,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,16 +334,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,13 +352,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -326,7 +359,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,37 +402,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -404,13 +435,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,49 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,109 +597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,6 +656,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -639,17 +694,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,18 +720,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,17 +734,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,148 +757,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,7 +1239,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5"/>
@@ -1221,6 +1252,7 @@
     <col min="6" max="6" width="12.4666666666667" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="22.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.2" spans="1:9">
@@ -1248,125 +1280,139 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" ht="15.2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" ht="15.2" spans="1:9">
+    <row r="3" ht="14.4" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" ht="16" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" ht="15.2" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8">
         <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" ht="14" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
       <formula1>"CentOS,RedHat"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
+      <formula1>"是, 否"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4"/>
   </dataValidations>

--- a/package_hub/template/import_hosts_template.xlsx
+++ b/package_hub/template/import_hosts_template.xlsx
@@ -40,7 +40,7 @@
     <t>操作系统[必填]</t>
   </si>
   <si>
-    <t>是否执行初始化[必填]</t>
+    <t>是否执行初始化</t>
   </si>
   <si>
     <t>字段标识(请勿编辑)</t>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>是</t>
     </r>
     <r>
@@ -171,7 +165,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>否</t>
+      <t>否，缺省值为否</t>
     </r>
   </si>
   <si>
@@ -215,12 +209,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,38 +252,127 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="方正书宋_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,9 +386,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,90 +398,6 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,49 +434,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,7 +602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,121 +614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,6 +654,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -674,7 +682,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,15 +698,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,8 +731,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,152 +756,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,6 +916,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1239,7 +1241,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5"/>
@@ -1396,7 +1398,7 @@
       <c r="H5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1406,15 +1408,14 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3"/>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3 H1:H4"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
       <formula1>"CentOS,RedHat"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
       <formula1>"是, 否"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/package_hub/template/import_hosts_template.xlsx
+++ b/package_hub/template/import_hosts_template.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13420"/>
+    <workbookView windowWidth="28800" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>字段名称(请勿编辑)</t>
   </si>
@@ -40,9 +40,6 @@
     <t>操作系统[必填]</t>
   </si>
   <si>
-    <t>是否执行初始化</t>
-  </si>
-  <si>
     <t>字段标识(请勿编辑)</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>operate_system</t>
-  </si>
-  <si>
-    <t>init_host</t>
   </si>
   <si>
     <t>字段类型(请勿编辑)</t>
@@ -146,29 +140,6 @@
     <t>CentOS/RedHat</t>
   </si>
   <si>
-    <r>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>否，缺省值为否</t>
-    </r>
-  </si>
-  <si>
     <t>示例数据(请勿编辑)</t>
   </si>
   <si>
@@ -188,9 +159,6 @@
   </si>
   <si>
     <t>CentOS</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <r>
@@ -209,12 +177,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,11 +220,106 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="方正书宋_GBK"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -264,23 +327,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,25 +343,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,77 +357,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,187 +397,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +626,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -678,10 +650,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -702,32 +706,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -736,172 +714,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,9 +879,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1238,13 +1198,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
@@ -1254,10 +1214,9 @@
     <col min="6" max="6" width="12.4666666666667" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="22.2666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:9">
+    <row r="1" ht="15.2" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1282,140 +1241,122 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" ht="15.2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="15.2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
+    <row r="3" ht="14.4" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" ht="14.4" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="4" ht="16" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" ht="16" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="4" t="s">
+    <row r="5" ht="15.2" spans="1:8">
+      <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="5" ht="15.2" spans="1:9">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="8">
         <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" ht="14" spans="1:1">
       <c r="A6" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1 I3 H1:H4"/>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
       <formula1>"CentOS,RedHat"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5">
-      <formula1>"是, 否"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4"/>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/package_hub/template/import_hosts_template.xlsx
+++ b/package_hub/template/import_hosts_template.xlsx
@@ -19,25 +19,102 @@
     <t>字段名称(请勿编辑)</t>
   </si>
   <si>
-    <t>实例名[必填]</t>
-  </si>
-  <si>
-    <t>IP[必填]</t>
-  </si>
-  <si>
-    <t>端口[必填]</t>
-  </si>
-  <si>
-    <t>用户名[必填]</t>
-  </si>
-  <si>
-    <t>密码[必填]</t>
-  </si>
-  <si>
-    <t>数据分区[必填]</t>
-  </si>
-  <si>
-    <t>操作系统[必填]</t>
+    <r>
+      <t>实例名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用户名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>数据分区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>操作系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[必填]</t>
+    </r>
   </si>
   <si>
     <t>字段标识(请勿编辑)</t>
@@ -177,12 +254,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,7 +275,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -227,6 +304,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -235,63 +373,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,55 +435,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -379,13 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFABF8F"/>
+        <fgColor theme="5" tint="0.6"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF30B8B2"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,31 +480,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,31 +606,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,115 +624,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,6 +709,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -646,21 +744,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,21 +774,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -714,150 +782,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1201,7 +1284,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1216,7 +1299,7 @@
     <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:8">
+    <row r="1" ht="16" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/package_hub/template/import_hosts_template.xlsx
+++ b/package_hub/template/import_hosts_template.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niuenli/Documents/omp_open/package_hub/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D785EB37-EA19-384A-B4EC-035FFF23CE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13920"/>
+    <workbookView xWindow="0" yWindow="2920" windowWidth="28800" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>字段名称(请勿编辑)</t>
   </si>
@@ -27,6 +33,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -41,6 +48,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -55,6 +63,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -69,6 +78,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -83,6 +93,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -97,6 +108,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -111,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>[必填]</t>
@@ -164,7 +177,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>IP</t>
     </r>
@@ -173,7 +186,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
       </rPr>
       <t>地址</t>
     </r>
@@ -190,7 +202,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
       </rPr>
       <t>以 /</t>
     </r>
@@ -199,7 +210,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -208,7 +219,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
       </rPr>
       <t>开头</t>
     </r>
@@ -236,6 +246,14 @@
   </si>
   <si>
     <t>CentOS</t>
+  </si>
+  <si>
+    <t>时间同步服务器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntpd_server</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -243,23 +261,42 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="4"/>
         <charset val="134"/>
       </rPr>
-      <t>实例数据</t>
-    </r>
+      <t>短字符</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例数据</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,189 +308,76 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="方正书宋_GBK"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Verdana"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <name val="方正书宋_GBK"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -462,13 +386,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,194 +402,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -699,255 +437,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,63 +457,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1275,31 +733,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="20.8333333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="13.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.4666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="18.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" spans="1:8">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,8 +782,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" ht="15.2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1350,8 +811,11 @@
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="I2" s="10" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" ht="14.4" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1376,8 +840,11 @@
       <c r="H3" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" ht="16" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1402,8 +869,11 @@
       <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="I4" s="11" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" ht="15.2" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1428,20 +898,31 @@
       <c r="H5" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="I5" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" ht="14" spans="1:1">
-      <c r="A6" s="9" t="s">
-        <v>34</v>
-      </c>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"CentOS,RedHat"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>